--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Indiana_Pacers__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Indiana_Pacers__.xlsx
@@ -588,79 +588,79 @@
         <v>25</v>
       </c>
       <c r="D2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E2" t="n">
         <v>26</v>
       </c>
-      <c r="E2" t="n">
-        <v>25</v>
-      </c>
       <c r="F2" t="n">
-        <v>886</v>
+        <v>920</v>
       </c>
       <c r="G2" t="n">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H2" t="n">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="I2" t="n">
-        <v>0.572</v>
+        <v>0.58</v>
       </c>
       <c r="J2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L2" t="n">
-        <v>0.279</v>
+        <v>0.3</v>
       </c>
       <c r="M2" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="N2" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="O2" t="n">
-        <v>0.654</v>
+        <v>0.659</v>
       </c>
       <c r="P2" t="n">
-        <v>0.603</v>
+        <v>0.613</v>
       </c>
       <c r="Q2" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="R2" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="S2" t="n">
-        <v>0.761</v>
+        <v>0.758</v>
       </c>
       <c r="T2" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="U2" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="V2" t="n">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="W2" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="X2" t="n">
         <v>30</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>82</v>
       </c>
       <c r="AA2" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AB2" t="n">
-        <v>464</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3">
@@ -676,79 +676,79 @@
         <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>746</v>
+        <v>779</v>
       </c>
       <c r="G3" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H3" t="n">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="I3" t="n">
         <v>0.453</v>
       </c>
       <c r="J3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L3" t="n">
         <v>0.31</v>
       </c>
       <c r="M3" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="N3" t="n">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="O3" t="n">
-        <v>0.538</v>
+        <v>0.536</v>
       </c>
       <c r="P3" t="n">
         <v>0.51</v>
       </c>
       <c r="Q3" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="R3" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="S3" t="n">
-        <v>0.876</v>
+        <v>0.874</v>
       </c>
       <c r="T3" t="n">
         <v>21</v>
       </c>
       <c r="U3" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="V3" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="W3" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AA3" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AB3" t="n">
-        <v>430</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4">
@@ -764,79 +764,79 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>725</v>
+        <v>757</v>
       </c>
       <c r="G4" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H4" t="n">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="I4" t="n">
-        <v>0.526</v>
+        <v>0.531</v>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K4" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L4" t="n">
-        <v>0.395</v>
+        <v>0.397</v>
       </c>
       <c r="M4" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N4" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O4" t="n">
-        <v>0.673</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>0.63</v>
+        <v>0.636</v>
       </c>
       <c r="Q4" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R4" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="S4" t="n">
-        <v>0.705</v>
+        <v>0.708</v>
       </c>
       <c r="T4" t="n">
         <v>38</v>
       </c>
       <c r="U4" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="V4" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="W4" t="n">
         <v>25</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA4" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AB4" t="n">
-        <v>314</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5">
@@ -852,79 +852,79 @@
         <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>710</v>
+        <v>741</v>
       </c>
       <c r="G5" t="n">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H5" t="n">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="I5" t="n">
-        <v>0.419</v>
+        <v>0.433</v>
       </c>
       <c r="J5" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K5" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L5" t="n">
-        <v>0.346</v>
+        <v>0.356</v>
       </c>
       <c r="M5" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="N5" t="n">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="O5" t="n">
-        <v>0.476</v>
+        <v>0.491</v>
       </c>
       <c r="P5" t="n">
-        <v>0.495</v>
+        <v>0.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R5" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S5" t="n">
-        <v>0.71</v>
+        <v>0.714</v>
       </c>
       <c r="T5" t="n">
         <v>13</v>
       </c>
       <c r="U5" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V5" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="W5" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y5" t="n">
         <v>3</v>
       </c>
       <c r="Z5" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA5" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB5" t="n">
-        <v>315</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6">
@@ -1116,79 +1116,79 @@
         <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="G8" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H8" t="n">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="I8" t="n">
-        <v>0.42</v>
+        <v>0.424</v>
       </c>
       <c r="J8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L8" t="n">
-        <v>0.259</v>
+        <v>0.265</v>
       </c>
       <c r="M8" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="N8" t="n">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="O8" t="n">
-        <v>0.494</v>
+        <v>0.495</v>
       </c>
       <c r="P8" t="n">
-        <v>0.461</v>
+        <v>0.465</v>
       </c>
       <c r="Q8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R8" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S8" t="n">
-        <v>0.78</v>
+        <v>0.791</v>
       </c>
       <c r="T8" t="n">
         <v>7</v>
       </c>
       <c r="U8" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V8" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="W8" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="n">
-        <v>269</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9">
@@ -1204,31 +1204,31 @@
         <v>31</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G9" t="n">
         <v>52</v>
       </c>
       <c r="H9" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I9" t="n">
-        <v>0.491</v>
+        <v>0.481</v>
       </c>
       <c r="J9" t="n">
         <v>14</v>
       </c>
       <c r="K9" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L9" t="n">
-        <v>0.275</v>
+        <v>0.264</v>
       </c>
       <c r="M9" t="n">
         <v>38</v>
@@ -1240,7 +1240,7 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.546</v>
       </c>
       <c r="Q9" t="n">
         <v>17</v>
@@ -1255,13 +1255,13 @@
         <v>30</v>
       </c>
       <c r="U9" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V9" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X9" t="n">
         <v>11</v>
@@ -1292,43 +1292,43 @@
         <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="G10" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H10" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="I10" t="n">
-        <v>0.417</v>
+        <v>0.425</v>
       </c>
       <c r="J10" t="n">
         <v>16</v>
       </c>
       <c r="K10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L10" t="n">
-        <v>0.291</v>
+        <v>0.286</v>
       </c>
       <c r="M10" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N10" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O10" t="n">
-        <v>0.514</v>
+        <v>0.526</v>
       </c>
       <c r="P10" t="n">
-        <v>0.48</v>
+        <v>0.485</v>
       </c>
       <c r="Q10" t="n">
         <v>7</v>
@@ -1343,16 +1343,16 @@
         <v>12</v>
       </c>
       <c r="U10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V10" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
         <v>7</v>
@@ -1361,10 +1361,10 @@
         <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB10" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
@@ -1380,49 +1380,49 @@
         <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="G11" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I11" t="n">
-        <v>0.394</v>
+        <v>0.389</v>
       </c>
       <c r="J11" t="n">
         <v>23</v>
       </c>
       <c r="K11" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L11" t="n">
-        <v>0.397</v>
+        <v>0.383</v>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N11" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O11" t="n">
-        <v>0.392</v>
+        <v>0.396</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5</v>
+        <v>0.491</v>
       </c>
       <c r="Q11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1431,13 +1431,13 @@
         <v>7</v>
       </c>
       <c r="U11" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V11" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X11" t="n">
         <v>9</v>
@@ -1446,13 +1446,13 @@
         <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
@@ -1468,43 +1468,43 @@
         <v>23</v>
       </c>
       <c r="D12" t="n">
+        <v>16</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>221</v>
+      </c>
+      <c r="G12" t="n">
+        <v>28</v>
+      </c>
+      <c r="H12" t="n">
+        <v>65</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="J12" t="n">
+        <v>13</v>
+      </c>
+      <c r="K12" t="n">
+        <v>33</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="M12" t="n">
         <v>15</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>201</v>
-      </c>
-      <c r="G12" t="n">
-        <v>26</v>
-      </c>
-      <c r="H12" t="n">
-        <v>57</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="J12" t="n">
-        <v>12</v>
-      </c>
-      <c r="K12" t="n">
-        <v>28</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="M12" t="n">
-        <v>14</v>
-      </c>
       <c r="N12" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O12" t="n">
-        <v>0.483</v>
+        <v>0.469</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.531</v>
       </c>
       <c r="Q12" t="n">
         <v>3</v>
@@ -1516,16 +1516,16 @@
         <v>0.273</v>
       </c>
       <c r="T12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U12" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V12" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
         <v>4</v>
@@ -1537,10 +1537,10 @@
         <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB12" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -1556,22 +1556,22 @@
         <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="G13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H13" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I13" t="n">
-        <v>0.348</v>
+        <v>0.358</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -1583,16 +1583,16 @@
         <v>0.286</v>
       </c>
       <c r="M13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N13" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O13" t="n">
-        <v>0.375</v>
+        <v>0.385</v>
       </c>
       <c r="P13" t="n">
-        <v>0.391</v>
+        <v>0.396</v>
       </c>
       <c r="Q13" t="n">
         <v>15</v>
@@ -1607,28 +1607,28 @@
         <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="W13" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X13" t="n">
         <v>2</v>
       </c>
       <c r="Y13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z13" t="n">
         <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AB13" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -1644,22 +1644,22 @@
         <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I14" t="n">
-        <v>0.286</v>
+        <v>0.3</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -1671,16 +1671,16 @@
         <v>0.16</v>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O14" t="n">
-        <v>0.417</v>
+        <v>0.44</v>
       </c>
       <c r="P14" t="n">
-        <v>0.327</v>
+        <v>0.34</v>
       </c>
       <c r="Q14" t="n">
         <v>11</v>
@@ -1692,13 +1692,13 @@
         <v>0.647</v>
       </c>
       <c r="T14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W14" t="n">
         <v>3</v>
@@ -1710,13 +1710,13 @@
         <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB14" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -1732,22 +1732,22 @@
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" t="n">
-        <v>0.364</v>
+        <v>0.333</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1760,13 +1760,13 @@
         <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O15" t="n">
-        <v>0.364</v>
+        <v>0.333</v>
       </c>
       <c r="P15" t="n">
-        <v>0.364</v>
+        <v>0.333</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1818,31 +1818,31 @@
         <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>0.667</v>
+        <v>0.5</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -1854,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0.833</v>
+        <v>0.625</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1974,77 +1974,77 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>6315</v>
+        <v>6555</v>
       </c>
       <c r="G18" t="n">
-        <v>1059</v>
+        <v>1105</v>
       </c>
       <c r="H18" t="n">
-        <v>2312</v>
+        <v>2398</v>
       </c>
       <c r="I18" t="n">
-        <v>0.458</v>
+        <v>0.461</v>
       </c>
       <c r="J18" t="n">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="K18" t="n">
-        <v>931</v>
+        <v>958</v>
       </c>
       <c r="L18" t="n">
-        <v>0.328</v>
+        <v>0.329</v>
       </c>
       <c r="M18" t="n">
-        <v>754</v>
+        <v>790</v>
       </c>
       <c r="N18" t="n">
-        <v>1381</v>
+        <v>1440</v>
       </c>
       <c r="O18" t="n">
-        <v>0.546</v>
+        <v>0.549</v>
       </c>
       <c r="P18" t="n">
-        <v>0.524</v>
+        <v>0.526</v>
       </c>
       <c r="Q18" t="n">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="R18" t="n">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="S18" t="n">
-        <v>0.776</v>
+        <v>0.778</v>
       </c>
       <c r="T18" t="n">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="U18" t="n">
-        <v>919</v>
+        <v>952</v>
       </c>
       <c r="V18" t="n">
-        <v>1187</v>
+        <v>1229</v>
       </c>
       <c r="W18" t="n">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="X18" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Y18" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Z18" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="AA18" t="n">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="AB18" t="n">
-        <v>2798</v>
+        <v>2920</v>
       </c>
     </row>
   </sheetData>
